--- a/SCManager.UserInterface/Content/Uploads/Form8_00.00.0000_F0.xlsx
+++ b/SCManager.UserInterface/Content/Uploads/Form8_00.00.0000_F0.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Details" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -342,23 +342,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -633,7 +633,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -644,7 +644,7 @@
   <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -722,13 +722,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="22"/>
+    <col min="1" max="1" width="9.140625" style="20"/>
     <col min="2" max="2" width="26.5703125" customWidth="1"/>
     <col min="3" max="3" width="136.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -739,7 +739,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="18.75">
-      <c r="A2" s="20">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -750,7 +750,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="18.75">
-      <c r="A3" s="20">
+      <c r="A3" s="18">
         <f>SUM(A2,1)</f>
         <v>2</v>
       </c>
@@ -762,7 +762,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="18.75">
-      <c r="A4" s="20">
+      <c r="A4" s="18">
         <f t="shared" ref="A4:A11" si="0">SUM(A3,1)</f>
         <v>3</v>
       </c>
@@ -774,7 +774,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="18.75">
-      <c r="A5" s="20">
+      <c r="A5" s="18">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -786,7 +786,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="18.75">
-      <c r="A6" s="20">
+      <c r="A6" s="18">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -798,7 +798,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="18.75">
-      <c r="A7" s="20">
+      <c r="A7" s="18">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -810,7 +810,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="18.75">
-      <c r="A8" s="20">
+      <c r="A8" s="18">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -822,7 +822,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="18.75">
-      <c r="A9" s="20">
+      <c r="A9" s="18">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -834,7 +834,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="18.75">
-      <c r="A10" s="20">
+      <c r="A10" s="18">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -846,7 +846,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="18.75">
-      <c r="A11" s="20">
+      <c r="A11" s="18">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -858,7 +858,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="18.75">
-      <c r="A12" s="21">
+      <c r="A12" s="19">
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -869,7 +869,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="18.75">
-      <c r="A13" s="20">
+      <c r="A13" s="18">
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
@@ -880,7 +880,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="18.75">
-      <c r="A14" s="20">
+      <c r="A14" s="18">
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
@@ -891,7 +891,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="18.75">
-      <c r="A15" s="20">
+      <c r="A15" s="18">
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
@@ -902,7 +902,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="18.75">
-      <c r="A16" s="20"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
     </row>
@@ -911,7 +911,7 @@
       <c r="C17" s="7"/>
     </row>
     <row r="20" spans="2:3" ht="18.75">
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="11" t="s">
@@ -919,19 +919,19 @@
       </c>
     </row>
     <row r="21" spans="2:3" ht="18.75">
-      <c r="B21" s="18"/>
+      <c r="B21" s="22"/>
       <c r="C21" s="12" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="18.75">
-      <c r="B22" s="18"/>
+      <c r="B22" s="22"/>
       <c r="C22" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="18.75">
-      <c r="B23" s="18"/>
+      <c r="B23" s="22"/>
       <c r="C23" s="13" t="s">
         <v>24</v>
       </c>
